--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G403"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10514,16 +10514,91 @@
         <v>19.18286</v>
       </c>
       <c r="D403" t="n">
-        <v>19.29216</v>
+        <v>19.45465</v>
       </c>
       <c r="E403" t="n">
         <v>19.14062</v>
       </c>
       <c r="F403" t="n">
-        <v>19.27849</v>
+        <v>19.4315</v>
       </c>
       <c r="G403" t="n">
-        <v>46946</v>
+        <v>123261</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45047.29166666666</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>19.4459</v>
+      </c>
+      <c r="D404" t="n">
+        <v>20.75105</v>
+      </c>
+      <c r="E404" t="n">
+        <v>19.39972</v>
+      </c>
+      <c r="F404" t="n">
+        <v>20.6844</v>
+      </c>
+      <c r="G404" t="n">
+        <v>102540</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45078.29166666666</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>20.6844</v>
+      </c>
+      <c r="D405" t="n">
+        <v>26.0737</v>
+      </c>
+      <c r="E405" t="n">
+        <v>20.6844</v>
+      </c>
+      <c r="F405" t="n">
+        <v>25.9624</v>
+      </c>
+      <c r="G405" t="n">
+        <v>135289</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45110.29166666666</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>25.9624</v>
+      </c>
+      <c r="D406" t="n">
+        <v>26.1339</v>
+      </c>
+      <c r="E406" t="n">
+        <v>25.82805</v>
+      </c>
+      <c r="F406" t="n">
+        <v>26.01813</v>
+      </c>
+      <c r="G406" t="n">
+        <v>26219</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -10573,7 +10573,7 @@
         <v>25.9624</v>
       </c>
       <c r="G405" t="n">
-        <v>135289</v>
+        <v>126725</v>
       </c>
     </row>
     <row r="406">
@@ -10589,16 +10589,16 @@
         <v>25.9624</v>
       </c>
       <c r="D406" t="n">
-        <v>26.1339</v>
+        <v>26.2462</v>
       </c>
       <c r="E406" t="n">
         <v>25.82805</v>
       </c>
       <c r="F406" t="n">
-        <v>26.01813</v>
+        <v>26.24235</v>
       </c>
       <c r="G406" t="n">
-        <v>26219</v>
+        <v>56482</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>33329.33333333334</v>
+        <v>33329.375</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>33665.33333333334</v>
+        <v>33665.375</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>33695.33333333334</v>
+        <v>33695.375</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>34610.29166666666</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>34974.29166666666</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.29166666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>38628.29166666666</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>38992.29166666666</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -10589,16 +10589,41 @@
         <v>25.9624</v>
       </c>
       <c r="D406" t="n">
-        <v>26.2462</v>
+        <v>27.0147</v>
       </c>
       <c r="E406" t="n">
         <v>25.82805</v>
       </c>
       <c r="F406" t="n">
-        <v>26.24235</v>
+        <v>26.89624</v>
       </c>
       <c r="G406" t="n">
-        <v>56482</v>
+        <v>134711</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45139.29166666666</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>26.89624</v>
+      </c>
+      <c r="D407" t="n">
+        <v>26.9978</v>
+      </c>
+      <c r="E407" t="n">
+        <v>26.86187</v>
+      </c>
+      <c r="F407" t="n">
+        <v>26.91657</v>
+      </c>
+      <c r="G407" t="n">
+        <v>42921</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.29166666666</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.29166666666</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>36770.29166666666</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.29166666666</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.29166666666</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>26.89624</v>
       </c>
       <c r="G406" t="n">
-        <v>134711</v>
+        <v>127893</v>
       </c>
     </row>
     <row r="407">
@@ -10614,16 +10614,16 @@
         <v>26.89624</v>
       </c>
       <c r="D407" t="n">
-        <v>26.9978</v>
+        <v>27.2077</v>
       </c>
       <c r="E407" t="n">
         <v>26.86187</v>
       </c>
       <c r="F407" t="n">
-        <v>26.91657</v>
+        <v>27.19625</v>
       </c>
       <c r="G407" t="n">
-        <v>42921</v>
+        <v>161530</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10614,16 +10614,91 @@
         <v>26.89624</v>
       </c>
       <c r="D407" t="n">
-        <v>27.2077</v>
+        <v>27.2255</v>
       </c>
       <c r="E407" t="n">
-        <v>26.86187</v>
+        <v>25.2143</v>
       </c>
       <c r="F407" t="n">
-        <v>27.19625</v>
+        <v>26.66108</v>
       </c>
       <c r="G407" t="n">
-        <v>161530</v>
+        <v>220251</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45170.29166666666</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>26.66108</v>
+      </c>
+      <c r="D408" t="n">
+        <v>27.46974</v>
+      </c>
+      <c r="E408" t="n">
+        <v>26.59665</v>
+      </c>
+      <c r="F408" t="n">
+        <v>27.36327</v>
+      </c>
+      <c r="G408" t="n">
+        <v>754593</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45201.33333333334</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>27.36327</v>
+      </c>
+      <c r="D409" t="n">
+        <v>28.32366</v>
+      </c>
+      <c r="E409" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="F409" t="n">
+        <v>28.22528</v>
+      </c>
+      <c r="G409" t="n">
+        <v>794560</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45231.33333333334</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>FX:USDTRY</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>28.22528</v>
+      </c>
+      <c r="D410" t="n">
+        <v>28.60675</v>
+      </c>
+      <c r="E410" t="n">
+        <v>28.19084</v>
+      </c>
+      <c r="F410" t="n">
+        <v>28.59204</v>
+      </c>
+      <c r="G410" t="n">
+        <v>556026</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -10689,16 +10689,16 @@
         <v>28.22528</v>
       </c>
       <c r="D410" t="n">
-        <v>28.60675</v>
+        <v>28.71884</v>
       </c>
       <c r="E410" t="n">
         <v>28.19084</v>
       </c>
       <c r="F410" t="n">
-        <v>28.59204</v>
+        <v>28.6265</v>
       </c>
       <c r="G410" t="n">
-        <v>556026</v>
+        <v>792218</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Turkey_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9825,16 +9825,39 @@
         <v>28.22528</v>
       </c>
       <c r="D410">
-        <v>28.81854</v>
+        <v>28.95429</v>
       </c>
       <c r="E410">
         <v>28.19084</v>
       </c>
       <c r="F410">
-        <v>28.81652</v>
+        <v>28.8426</v>
       </c>
       <c r="G410">
-        <v>895339</v>
+        <v>1152738</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411">
+        <v>28.8426</v>
+      </c>
+      <c r="D411">
+        <v>28.96222</v>
+      </c>
+      <c r="E411">
+        <v>28.80956</v>
+      </c>
+      <c r="F411">
+        <v>28.88435</v>
+      </c>
+      <c r="G411">
+        <v>104035</v>
       </c>
     </row>
   </sheetData>
